--- a/GATEWAY/A1#111BCSSRL00000/BCS/PriamoRIS/4.14.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/PriamoRIS/4.14.0.0/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01\Shares\Rep-Software\A-FSE-2\Test Case\0 AAA VALIDAZIONE\1-Referto di Radiologia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\shares\Rep-Software\A-FSE-2\Test Case\0 AAA VALIDAZIONE\1-Referto di Radiologia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297EE066-CF95-4240-8CCE-2B85B6DFDCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A6636E-97D7-4B2D-8983-DF404BEC37DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="316" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3540" windowWidth="29040" windowHeight="15720" tabRatio="316" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="148">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -572,24 +572,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Mon, 30 Jan 2023 11:02:43 GMT</t>
-  </si>
-  <si>
-    <t>9a472beefeef3245</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.33bfe996b1670e00b6bc1fbc204d6bf57e87d85d3f4c617e6540d44297f43f59.f43a72cf0e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Mon, 30 Jan 2023 12:07:33 GMT</t>
-  </si>
-  <si>
-    <t>eea189b132b3718e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.33bfe996b1670e00b6bc1fbc204d6bf57e87d85d3f4c617e6540d44297f43f59.267a470d5d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Il Modulo Priamo RIS non gestisce l'inserimento nel documento delle seguenti section opzionali :
 - DICOM Object Catalog
 - Precedenti esami eseguiti
@@ -613,33 +595,6 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>{
-    "traceID": "5c6ecf7ae1b46862",
-    "spanID": "5c6ecf7ae1b46862",
-    "type": "/msg/jwt-validation",
-    "title": "Campo token JWT non valido.",
-    "detail": "Il codice fiscale nel campo person_id non è corretto",
-    "status": 403,
-    "instance": "/jwt-mandatory-field-malformed",
-    "workflowInstanceId": "UNKNOWN_WORKFLOW_ID"
-}</t>
-  </si>
-  <si>
-    <t>Mon, 30 Jan 2023 13:07:41 GMT</t>
-  </si>
-  <si>
-    <t>5c6ecf7ae1b46862</t>
-  </si>
-  <si>
-    <t>Il caso di errore è stato generato effettuando una forzatura sui dati. A livello applicativo non è possibile avere un assistito senza identificativo.</t>
-  </si>
-  <si>
-    <t>Mon, 30 Jan 2023 13:24:00 GMT</t>
-  </si>
-  <si>
-    <t>dde4b5db07b4eb13</t>
-  </si>
-  <si>
     <t>Il caso di errore è stato generato effettuando una forzatura sui dati. A livello applicativo ci sono i controlli sulla validatà dal codica fiscale.</t>
   </si>
   <si>
@@ -655,30 +610,6 @@
     <t>Il valore usato per confidentialityCode è una configuraizone applicativa. In caso di errore occorre correggere la configurazione.</t>
   </si>
   <si>
-    <t>Mon, 30 Jan 2023 13:37:38 GMT</t>
-  </si>
-  <si>
-    <t>46786fd2639ec055</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.33bfe996b1670e00b6bc1fbc204d6bf57e87d85d3f4c617e6540d44297f43f59.cc6d81249f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>In caso di errore in fase di generazione del documento viene mostrata una segnalazione a video e l'utente deve provvedere a completare il dato.</t>
-  </si>
-  <si>
-    <t>696eddc1c2fbee09</t>
-  </si>
-  <si>
-    <t>Mon, 30 Jan 2023 14:21:47 GMT</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.33bfe996b1670e00b6bc1fbc204d6bf57e87d85d3f4c617e6540d44297f43f59.debe00e4d4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Il caso di errore è stato generato effettuando una forzatura sui dati. A livello applicativo non è possibile avere un assistito senza il nome.</t>
-  </si>
-  <si>
     <t>Mon, 30 Jan 2023 14:26:54 GMT</t>
   </si>
   <si>
@@ -691,22 +622,8 @@
     <t>Il caso di errore è stato generato effettuando una forzatura sui dati. A livello applicativo non è possibile avere un valore per il sesso non censito.</t>
   </si>
   <si>
-    <t>Il Modulo Priamo RIS gestisce il campo della tipologia di accesso ma se il valore non corrisponde ai valori gestiti il tag NON viene inserito nel CDA2.
-Questo comporta che non risulta possibile avere il tag popolato con un valore NON previsto dalla codifica.</t>
-  </si>
-  <si>
-    <t>Il Modulo Priamo RIS non gestisce il tag OPZIONALE oggetto del caso di test.</t>
-  </si>
-  <si>
-    <t>Per il Modulo Priamo RIS il campo esame è obbligatorio.
-Non è possibile generare un CDA2 senza il codice dell'esame.</t>
-  </si>
-  <si>
     <t>Per il Modulo Priamo RIS il campo REFERTO è obbligatorio che esista e che sia valorizzato per la produzione del documento e quindi del CDA2.
 Non può sussistere il caso in cui ci sia un documento (PDF + CDA2) senza testo del referto.</t>
-  </si>
-  <si>
-    <t>Il Modulo Priamo RIS include la sorica clinica in solo formato testuale a livello applicativo. Nel documento CDA2 viene quindi popolata la section relativa con la parte testuale. L'entry specifica richiesta dal test non è quindi gestibile.</t>
   </si>
   <si>
     <t>Il Modulo Priamo RIS non gestisce l'inserimento nel documento di tutte le section opzionali.</t>
@@ -721,19 +638,6 @@
   </si>
   <si>
     <t>Viene registrato il messaggio di errore e successivamente l'utente ha la possibilità di rigenerare il documento a fronte di tutti i casi marcati come "in errore".</t>
-  </si>
-  <si>
-    <t>{
-    "traceID": "2dc1e80ed03817e8",
-    "spanID": "2dc1e80ed03817e8",
-    "type": "/msg/jwt-validation",
-    "title": "Campo token JWT non valido.",
-    "detail": "JWT payload: Tipologia documento diversa dalla tipologia di CDA (code - codesystem)",
-    "status": 403,
-    "instance": "/jwt-document-type",
-    "workflowInstanceId": "2.16.840.1.113883.2.9.2.80.3.1.4.4.33bfe996b1670e00b6bc1fbc204d6bf57e87d85d3f4c617e6540d44297f43f59.31fe69b67d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"
-}
-Viene registrato il messaggio di errore e successivamente l'utente ha la possibilità di rigenerare il documento a fronte di tutti i casi marcati come "in errore".</t>
   </si>
   <si>
     <t>Mon, 30 Jan 2023 16:14:12 GMT</t>
@@ -760,77 +664,71 @@
     <t>017be47eecffd207</t>
   </si>
   <si>
-    <t>{
-    "traceID": "017be47eecffd207",
-    "spanID": "017be47eecffd207",
-    "type": "/msg/jwt-validation",
-    "title": "Campo token JWT non valido.",
-    "detail": "Il campo resource_hl7_type non è valorizzato",
-    "status": 403,
-    "instance": "/jwt-mandatory-field-missing",
-    "workflowInstanceId": "UNKNOWN_WORKFLOW_ID"
-}
-Viene registrato il messaggio di errore e successivamente l'utente ha la possibilità di rigenerare il documento a fronte di tutti i casi marcati come "in errore".</t>
-  </si>
-  <si>
     <t>Wed, 22 Feb 2023 08:49:06 GMT</t>
   </si>
   <si>
-    <t xml:space="preserve">{
-    "traceID": "dde4b5db07b4eb13",
-    "spanID": "dde4b5db07b4eb13",
-    "type": "/msg/jwt-validation",
-    "title": "Campo token JWT non valido.",
-    "detail": "Il codice fiscale nel campo person_id non è corretto",
-    "status": 403,
-    "instance": "/jwt-mandatory-field-malformed",
-    "workflowInstanceId": "UNKNOWN_WORKFLOW_ID"
-}
-</t>
+    <t>Il tag cofidentialityCode viene sempre inserito nel CDA. Il valore di default è N</t>
   </si>
   <si>
-    <t>{
-    "traceID": "94a2889d3bc84b38",
-    "spanID": "94a2889d3bc84b38",
-    "type": "/msg/semantic",
-    "title": "Errore semantico.",
-    "detail": "[ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']",
-    "status": 422,
-    "instance": "/validation/error",
-    "workflowInstanceId": "2.16.840.1.113883.2.9.2.80.3.1.4.4.33bfe996b1670e00b6bc1fbc204d6bf57e87d85d3f4c617e6540d44297f43f59.eb7e3359e2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"
-}
-Viene registrato il messaggio di errore e successivamente l'utente ha la possibilità di rigenerare il documento a fronte di tutti i casi marcati come "in errore".</t>
+    <t>Il tag ClinicalDocument/recordTarget/patientRole/addr/city è sempre presente. Se manca il valore il tag è presente ma vuoto</t>
   </si>
   <si>
-    <t>{
-    "traceID": "46786fd2639ec055",
-    "spanID": "46786fd2639ec055",
-    "workflowInstanceId": "2.16.840.1.113883.2.9.2.80.3.1.4.4.33bfe996b1670e00b6bc1fbc204d6bf57e87d85d3f4c617e6540d44297f43f59.cc6d81249f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId",
-    "warning": "[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']"
-}
-Viene registrato il messaggio di errore e successivamente l'utente ha la possibilità di rigenerare il documento a fronte di tutti i casi marcati come "in errore".</t>
+    <t>Il tag ClinicalDocument/recordTarget/patientRole/patient/name/given è sempre presente. Se manca il valore il tag è presente ma vuoto</t>
   </si>
   <si>
-    <t>{
-    "traceID": "696eddc1c2fbee09",
-    "spanID": "696eddc1c2fbee09",
-    "workflowInstanceId": "2.16.840.1.113883.2.9.2.80.3.1.4.4.33bfe996b1670e00b6bc1fbc204d6bf57e87d85d3f4c617e6540d44297f43f59.debe00e4d4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId",
-    "warning": "[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']"
-}
-Viene registrato il messaggio di errore e successivamente l'utente ha la possibilità di rigenerare il documento a fronte di tutti i casi marcati come "in errore".</t>
+    <t>Il Modulo Priamo RIS gestisce solo il tecnico di radiologia con la seguente codifica:
+&lt;code code="3211" codeSystem="2.16.840.1.113883.2.9.6.2.7" codeSystemName="ISCO-08" displayName="Tecnici di imaging medicale e apparecchiature terapeutiche"/&gt;
+Non è possibile inserire un participant con altro codice</t>
   </si>
   <si>
-    <t>{
-    "traceID": "770d3b162fe8fc88",
-    "spanID": "770d3b162fe8fc88",
-    "type": "/msg/vocabulary",
-    "title": "Errore vocabolario.",
-    "detail": "Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: G]",
-    "status": 400,
-    "instance": "/validation/error",
-    "workflowInstanceId": "2.16.840.1.113883.2.9.2.80.3.1.4.4.33bfe996b1670e00b6bc1fbc204d6bf57e87d85d3f4c617e6540d44297f43f59.2232a5f1e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"
-}
-Viene registrato il messaggio di errore e successivamente l'utente ha la possibilità di rigenerare il documento a fronte di tutti i casi marcati come "in errore".</t>
+    <t>Il Modulo Priamo RIS non gestisce il tag OPZIONALE ClinicalDocument/inFulfillmentOf/order/priorityCode</t>
+  </si>
+  <si>
+    <t>E' sempre presente il tag ClinicalDocument/inFulfillmentOf relativo all'accession number.
+Se è presente la prescrizione viene aggiunto un tag ClinicalDocument/inFulfillmentOf compreso di id
+Non è possibile quindi avere un tag ClinicalDocument/inFulfillmentOf senza id</t>
+  </si>
+  <si>
+    <t>Non è possibile avere un CDA senza il codice esame. In assenza dell'esame non può essere prodotto il referto.</t>
+  </si>
+  <si>
+    <t>Il Modulo Priamo RIS non gestisce il tag OPZIONALE ClinicalDocument/component/structuredBody/component/section[@ID=Precedenti_esami_eseguiti]</t>
+  </si>
+  <si>
+    <t>Il Modulo Priamo RIS non gestisce il tag OPZIONALE ClinicalDocument/component/structuredBody/component/section[@ID=DICOM_Object_Catalog]</t>
+  </si>
+  <si>
+    <t>Il Modulo Priamo RIS include la sorica clinica in solo formato testuale a livello applicativo. Nel documento CDA2 viene quindi popolata la section relativa con la parte testuale. L'entry specifica richiesta dal test (ClinicalDocument/component/structuredBody/component/section[@ID=Storia_Clinica]/entry) non è quindi gestibile.</t>
+  </si>
+  <si>
+    <t>Il Modulo Priamo RIS include la sorica clinica in solo formato testuale a livello applicativo. Nel documento CDA2 viene quindi popolata la section relativa con la parte testuale. L'entry specifica richiesta dal test (ClinicalDocument/component/structuredBody/component/section[@ID=Storia_Clinica]/component/section[@ID=Allergie]/entry) non è quindi gestibile.</t>
+  </si>
+  <si>
+    <t>Thu, 16 Mar 2023 09:44:34 GMT</t>
+  </si>
+  <si>
+    <t>1e32e44396089bc0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.6c52206b644043f09b41b3c74228843b4dfe48ebb8becb8da36c83ed0e434d10.4e3385a6e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Thu, 16 Mar 2023 10:00:47 GMT</t>
+  </si>
+  <si>
+    <t>b704d64836a2f0dd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.6c52206b644043f09b41b3c74228843b4dfe48ebb8becb8da36c83ed0e434d10.6451e9807c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Thu, 16 Mar 2023 10:23:19 GMT</t>
+  </si>
+  <si>
+    <t>81169d5e4dfba517</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.6c52206b644043f09b41b3c74228843b4dfe48ebb8becb8da36c83ed0e434d10.793fa38c22^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1673,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2785,13 +2683,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O880"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2803,7 +2702,8 @@
     <col min="5" max="5" width="104.6640625" customWidth="1"/>
     <col min="6" max="6" width="33.33203125" customWidth="1"/>
     <col min="7" max="7" width="25.77734375" customWidth="1"/>
-    <col min="8" max="9" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="48.109375" customWidth="1"/>
     <col min="11" max="11" width="27.33203125" customWidth="1"/>
     <col min="12" max="12" width="33.33203125" customWidth="1"/>
@@ -2831,7 +2731,7 @@
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="49" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D2" s="48"/>
       <c r="F2" s="7"/>
@@ -2851,7 +2751,7 @@
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="56" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D3" s="48"/>
       <c r="F3" s="7"/>
@@ -2869,7 +2769,7 @@
       <c r="A4" s="52"/>
       <c r="B4" s="53"/>
       <c r="C4" s="56" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="2"/>
@@ -2888,7 +2788,7 @@
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D5" s="48"/>
       <c r="F5" s="7"/>
@@ -3008,16 +2908,16 @@
         <v>29</v>
       </c>
       <c r="F10" s="17">
-        <v>44956</v>
+        <v>45001</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
@@ -3047,16 +2947,16 @@
         <v>31</v>
       </c>
       <c r="F11" s="17">
-        <v>44956</v>
+        <v>45001</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="37" t="s">
@@ -3069,7 +2969,7 @@
       <c r="N11" s="20"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" spans="1:15" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>13</v>
       </c>
@@ -3095,12 +2995,12 @@
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="37" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N12" s="20"/>
       <c r="O12" s="39"/>
     </row>
-    <row r="13" spans="1:15" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>14</v>
       </c>
@@ -3126,12 +3026,12 @@
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="N13" s="20"/>
       <c r="O13" s="39"/>
     </row>
-    <row r="14" spans="1:15" ht="231" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>31</v>
       </c>
@@ -3151,16 +3051,16 @@
         <v>44979</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>40</v>
@@ -3173,10 +3073,10 @@
         <v>40</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="288.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>39</v>
       </c>
@@ -3196,16 +3096,16 @@
         <v>44956</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>40</v>
@@ -3218,10 +3118,10 @@
         <v>40</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="58.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>47</v>
       </c>
@@ -3244,7 +3144,7 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="19" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
@@ -3254,7 +3154,7 @@
       </c>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="1:15" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>75</v>
       </c>
@@ -3270,36 +3170,24 @@
       <c r="E17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="17">
-        <v>44956</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>111</v>
-      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
       <c r="K17" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="M17" s="19"/>
+        <v>101</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19" t="s">
+        <v>128</v>
+      </c>
       <c r="N17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>76</v>
       </c>
@@ -3316,19 +3204,19 @@
         <v>49</v>
       </c>
       <c r="F18" s="17">
-        <v>44956</v>
+        <v>45001</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>40</v>
@@ -3341,10 +3229,10 @@
         <v>40</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>77</v>
       </c>
@@ -3364,16 +3252,16 @@
         <v>44956</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="I19" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>155</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>40</v>
@@ -3386,10 +3274,10 @@
         <v>40</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>78</v>
       </c>
@@ -3405,36 +3293,24 @@
       <c r="E20" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="17">
-        <v>44956</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>156</v>
-      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="19"/>
       <c r="K20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="M20" s="19"/>
+        <v>101</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19" t="s">
+        <v>129</v>
+      </c>
       <c r="N20" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="O20" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O20" s="21"/>
+    </row>
+    <row r="21" spans="1:15" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>79</v>
       </c>
@@ -3450,36 +3326,24 @@
       <c r="E21" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="17">
-        <v>44956</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>157</v>
-      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
       <c r="K21" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="M21" s="19"/>
+        <v>101</v>
+      </c>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19" t="s">
+        <v>130</v>
+      </c>
       <c r="N21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="303" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O21" s="21"/>
+    </row>
+    <row r="22" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>80</v>
       </c>
@@ -3499,16 +3363,16 @@
         <v>44956</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>40</v>
@@ -3521,10 +3385,10 @@
         <v>40</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>81</v>
       </c>
@@ -3550,14 +3414,14 @@
       </c>
       <c r="L23" s="19"/>
       <c r="M23" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N23" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O23" s="21"/>
     </row>
-    <row r="24" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>82</v>
       </c>
@@ -3579,14 +3443,14 @@
       </c>
       <c r="L24" s="19"/>
       <c r="M24" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N24" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O24" s="21"/>
     </row>
-    <row r="25" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>83</v>
       </c>
@@ -3612,14 +3476,14 @@
       </c>
       <c r="L25" s="19"/>
       <c r="M25" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N25" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O25" s="21"/>
     </row>
-    <row r="26" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>84</v>
       </c>
@@ -3645,14 +3509,14 @@
       </c>
       <c r="L26" s="19"/>
       <c r="M26" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N26" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O26" s="21"/>
     </row>
-    <row r="27" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>85</v>
       </c>
@@ -3678,14 +3542,14 @@
       </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="N27" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O27" s="21"/>
     </row>
-    <row r="28" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>86</v>
       </c>
@@ -3718,7 +3582,7 @@
       </c>
       <c r="O28" s="21"/>
     </row>
-    <row r="29" spans="1:15" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>87</v>
       </c>
@@ -3744,14 +3608,14 @@
       </c>
       <c r="L29" s="19"/>
       <c r="M29" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N29" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O29" s="21"/>
     </row>
-    <row r="30" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>88</v>
       </c>
@@ -3777,14 +3641,14 @@
       </c>
       <c r="L30" s="19"/>
       <c r="M30" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N30" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O30" s="21"/>
     </row>
-    <row r="31" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>89</v>
       </c>
@@ -3810,14 +3674,14 @@
       </c>
       <c r="L31" s="19"/>
       <c r="M31" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N31" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O31" s="21"/>
     </row>
-    <row r="32" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>90</v>
       </c>
@@ -3850,7 +3714,7 @@
       </c>
       <c r="O32" s="21"/>
     </row>
-    <row r="33" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>91</v>
       </c>
@@ -3883,7 +3747,7 @@
       </c>
       <c r="O33" s="21"/>
     </row>
-    <row r="34" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>92</v>
       </c>
@@ -3909,14 +3773,14 @@
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="19" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="N34" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O34" s="21"/>
     </row>
-    <row r="35" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>93</v>
       </c>
@@ -3942,7 +3806,7 @@
       </c>
       <c r="L35" s="19"/>
       <c r="M35" s="19" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="N35" s="20" t="s">
         <v>40</v>
@@ -14090,7 +13954,13 @@
       <c r="O880" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:O35" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A9:O35" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="SI"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>

--- a/GATEWAY/A1#111BCSSRL00000/BCS/PriamoRIS/4.14.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/PriamoRIS/4.14.0.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\shares\Rep-Software\A-FSE-2\Test Case\0 AAA VALIDAZIONE\1-Referto di Radiologia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A6636E-97D7-4B2D-8983-DF404BEC37DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DAC6DB-7CDB-43CE-A779-82356C714B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3540" windowWidth="29040" windowHeight="15720" tabRatio="316" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="316" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -704,24 +704,6 @@
     <t>Il Modulo Priamo RIS include la sorica clinica in solo formato testuale a livello applicativo. Nel documento CDA2 viene quindi popolata la section relativa con la parte testuale. L'entry specifica richiesta dal test (ClinicalDocument/component/structuredBody/component/section[@ID=Storia_Clinica]/component/section[@ID=Allergie]/entry) non è quindi gestibile.</t>
   </si>
   <si>
-    <t>Thu, 16 Mar 2023 09:44:34 GMT</t>
-  </si>
-  <si>
-    <t>1e32e44396089bc0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.6c52206b644043f09b41b3c74228843b4dfe48ebb8becb8da36c83ed0e434d10.4e3385a6e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Thu, 16 Mar 2023 10:00:47 GMT</t>
-  </si>
-  <si>
-    <t>b704d64836a2f0dd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.6c52206b644043f09b41b3c74228843b4dfe48ebb8becb8da36c83ed0e434d10.6451e9807c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Thu, 16 Mar 2023 10:23:19 GMT</t>
   </si>
   <si>
@@ -729,6 +711,24 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.6c52206b644043f09b41b3c74228843b4dfe48ebb8becb8da36c83ed0e434d10.793fa38c22^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e141b549f33da7ae</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.6c52206b644043f09b41b3c74228843b4dfe48ebb8becb8da36c83ed0e434d10.cc98eb54b5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Mon, 27 Mar 2023 11:55:01 GMT</t>
+  </si>
+  <si>
+    <t>Mon, 27 Mar 2023 11:57:02 GMT</t>
+  </si>
+  <si>
+    <t>089738612f943ae8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.6c52206b644043f09b41b3c74228843b4dfe48ebb8becb8da36c83ed0e434d10.5e4149e4e8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2687,10 +2687,10 @@
   <dimension ref="A1:O880"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2908,16 +2908,16 @@
         <v>29</v>
       </c>
       <c r="F10" s="17">
-        <v>45001</v>
+        <v>45012</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
@@ -2947,16 +2947,16 @@
         <v>31</v>
       </c>
       <c r="F11" s="17">
-        <v>45001</v>
+        <v>45012</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="37" t="s">
@@ -3207,13 +3207,13 @@
         <v>45001</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J18" s="19" t="s">
         <v>118</v>

--- a/GATEWAY/A1#111BCSSRL00000/BCS/PriamoRIS/4.14.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/PriamoRIS/4.14.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\shares\Rep-Software\A-FSE-2\Test Case\0 AAA VALIDAZIONE\1-Referto di Radiologia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DAC6DB-7CDB-43CE-A779-82356C714B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F437FF-FCDB-47C4-AFBB-FCC1CCBB1EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="316" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="150">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -595,9 +595,6 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>Il caso di errore è stato generato effettuando una forzatura sui dati. A livello applicativo ci sono i controlli sulla validatà dal codica fiscale.</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.33bfe996b1670e00b6bc1fbc204d6bf57e87d85d3f4c617e6540d44297f43f59.eb7e3359e2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -605,9 +602,6 @@
   </si>
   <si>
     <t>Mon, 30 Jan 2023 13:31:07 GMT</t>
-  </si>
-  <si>
-    <t>Il valore usato per confidentialityCode è una configuraizone applicativa. In caso di errore occorre correggere la configurazione.</t>
   </si>
   <si>
     <t>Mon, 30 Jan 2023 14:26:54 GMT</t>
@@ -729,6 +723,24 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.6c52206b644043f09b41b3c74228843b4dfe48ebb8becb8da36c83ed0e434d10.5e4149e4e8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>viene visualizzato il seguente messaggio di errore: "Errore nella validazione del CDA2: " + la descrizione dell'errore ritornata dal gateway.
+L'applicativo può essere configurato per comportarsi nei seguenti modi a seconda delle disposizioni regionali e delle scelte aziendali:
+1. L'errore è bloccante e il referto torna in coda di firma. Dopo che l'errore è stato corretto dal medico o dal personale amministrativo, il referto può essere firmato nuovamente e inviato al respoitory aziendale  che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.
+2. Il referto viene comunque firmato e inviato al repository aziendale per la consegna al paziente e la consultazione interna. Una volta corretto l'errore,  il medico può  generare e firmare un referto sostitutivo e archiviarlo su respoitory aziendale che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.</t>
+  </si>
+  <si>
+    <t>viene visualizzato il seguente messaggio di errore: "Errore nella validazione del CDA2: timeout nella chiamata al gateway FSE".
+L'applicativo può essere configurato per comportarsi nei seguenti modi a seconda delle disposizioni regionali e delle scelte aziendali:
+1. L'errore è bloccante e il referto torna in coda di firma. Il medico può ripetere la firma e nel caso abbia successo il documento viene archiviato su respoitory aziendale che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.
+2. Il referto viene comunque firmato e inviato al repository aziendale per la consegna al paziente e la consultazione interna. Il medico può successivamente  generare e firmare un referto sostitutivo e archiviarlo su respoitory aziendale che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.</t>
+  </si>
+  <si>
+    <t>Il caso di errore è stato generato effettuando una forzatura sui dati. A livello applicativo ci sono i controlli sulla validatà dal codice fiscale.</t>
+  </si>
+  <si>
+    <t>Il medico è invitato dal programma a scegliere tra una delle opzioni di oscuramento configurate. Non è possibile quindi che venga inviato un valore errato a meno di errori di configurazione. In questo caso è il personale in backoffice che corregge la configurazione.</t>
   </si>
 </sst>
 </file>
@@ -2683,14 +2695,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O880"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2731,7 +2742,7 @@
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D2" s="48"/>
       <c r="F2" s="7"/>
@@ -2751,7 +2762,7 @@
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D3" s="48"/>
       <c r="F3" s="7"/>
@@ -2769,7 +2780,7 @@
       <c r="A4" s="52"/>
       <c r="B4" s="53"/>
       <c r="C4" s="56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="2"/>
@@ -2788,7 +2799,7 @@
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D5" s="48"/>
       <c r="F5" s="7"/>
@@ -2911,13 +2922,13 @@
         <v>45012</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
@@ -2950,13 +2961,13 @@
         <v>45012</v>
       </c>
       <c r="G11" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>147</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="37" t="s">
@@ -2969,7 +2980,7 @@
       <c r="N11" s="20"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" spans="1:15" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>13</v>
       </c>
@@ -3000,7 +3011,7 @@
       <c r="N12" s="20"/>
       <c r="O12" s="39"/>
     </row>
-    <row r="13" spans="1:15" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>14</v>
       </c>
@@ -3026,12 +3037,12 @@
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N13" s="20"/>
       <c r="O13" s="39"/>
     </row>
-    <row r="14" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="288.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>31</v>
       </c>
@@ -3051,16 +3062,16 @@
         <v>44979</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>104</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>40</v>
@@ -3073,10 +3084,10 @@
         <v>40</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="288.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>39</v>
       </c>
@@ -3096,16 +3107,16 @@
         <v>44956</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>40</v>
@@ -3118,10 +3129,10 @@
         <v>40</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="58.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>47</v>
       </c>
@@ -3144,7 +3155,7 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="19" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
@@ -3154,7 +3165,7 @@
       </c>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="1:15" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>75</v>
       </c>
@@ -3180,14 +3191,14 @@
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N17" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="288.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>76</v>
       </c>
@@ -3207,16 +3218,16 @@
         <v>45001</v>
       </c>
       <c r="G18" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>141</v>
-      </c>
       <c r="J18" s="19" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>40</v>
@@ -3229,10 +3240,10 @@
         <v>40</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="288.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>77</v>
       </c>
@@ -3252,16 +3263,16 @@
         <v>44956</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>40</v>
@@ -3274,10 +3285,10 @@
         <v>40</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="101.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>78</v>
       </c>
@@ -3303,14 +3314,14 @@
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N20" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O20" s="21"/>
     </row>
-    <row r="21" spans="1:15" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>79</v>
       </c>
@@ -3336,14 +3347,14 @@
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N21" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="288.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>80</v>
       </c>
@@ -3363,16 +3374,16 @@
         <v>44956</v>
       </c>
       <c r="G22" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>112</v>
-      </c>
       <c r="J22" s="19" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>40</v>
@@ -3385,10 +3396,10 @@
         <v>40</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="144" hidden="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>81</v>
       </c>
@@ -3414,14 +3425,14 @@
       </c>
       <c r="L23" s="19"/>
       <c r="M23" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N23" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O23" s="21"/>
     </row>
-    <row r="24" spans="1:15" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>82</v>
       </c>
@@ -3443,14 +3454,14 @@
       </c>
       <c r="L24" s="19"/>
       <c r="M24" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N24" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O24" s="21"/>
     </row>
-    <row r="25" spans="1:15" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>83</v>
       </c>
@@ -3476,14 +3487,14 @@
       </c>
       <c r="L25" s="19"/>
       <c r="M25" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N25" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O25" s="21"/>
     </row>
-    <row r="26" spans="1:15" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>84</v>
       </c>
@@ -3509,14 +3520,14 @@
       </c>
       <c r="L26" s="19"/>
       <c r="M26" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N26" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O26" s="21"/>
     </row>
-    <row r="27" spans="1:15" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>85</v>
       </c>
@@ -3542,14 +3553,14 @@
       </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N27" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O27" s="21"/>
     </row>
-    <row r="28" spans="1:15" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>86</v>
       </c>
@@ -3575,14 +3586,14 @@
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N28" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O28" s="21"/>
     </row>
-    <row r="29" spans="1:15" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>87</v>
       </c>
@@ -3608,14 +3619,14 @@
       </c>
       <c r="L29" s="19"/>
       <c r="M29" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N29" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O29" s="21"/>
     </row>
-    <row r="30" spans="1:15" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>88</v>
       </c>
@@ -3641,14 +3652,14 @@
       </c>
       <c r="L30" s="19"/>
       <c r="M30" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N30" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O30" s="21"/>
     </row>
-    <row r="31" spans="1:15" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
         <v>89</v>
       </c>
@@ -3674,14 +3685,14 @@
       </c>
       <c r="L31" s="19"/>
       <c r="M31" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N31" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O31" s="21"/>
     </row>
-    <row r="32" spans="1:15" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
         <v>90</v>
       </c>
@@ -3707,14 +3718,14 @@
       </c>
       <c r="L32" s="19"/>
       <c r="M32" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N32" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O32" s="21"/>
     </row>
-    <row r="33" spans="1:15" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="14">
         <v>91</v>
       </c>
@@ -3740,14 +3751,14 @@
       </c>
       <c r="L33" s="19"/>
       <c r="M33" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N33" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O33" s="21"/>
     </row>
-    <row r="34" spans="1:15" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14">
         <v>92</v>
       </c>
@@ -3773,14 +3784,14 @@
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N34" s="20" t="s">
         <v>40</v>
       </c>
       <c r="O34" s="21"/>
     </row>
-    <row r="35" spans="1:15" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>93</v>
       </c>
@@ -3806,7 +3817,7 @@
       </c>
       <c r="L35" s="19"/>
       <c r="M35" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N35" s="20" t="s">
         <v>40</v>
@@ -13954,13 +13965,7 @@
       <c r="O880" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:O35" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="SI"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:O35" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>

--- a/GATEWAY/A1#111BCSSRL00000/BCS/PriamoRIS/4.14.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/PriamoRIS/4.14.0.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\shares\Rep-Software\A-FSE-2\Test Case\0 AAA VALIDAZIONE\1-Referto di Radiologia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F437FF-FCDB-47C4-AFBB-FCC1CCBB1EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B6EB1A-DE83-429F-B115-0B3D6E7F0009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="316" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,24 +707,6 @@
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.6c52206b644043f09b41b3c74228843b4dfe48ebb8becb8da36c83ed0e434d10.793fa38c22^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>e141b549f33da7ae</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.6c52206b644043f09b41b3c74228843b4dfe48ebb8becb8da36c83ed0e434d10.cc98eb54b5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Mon, 27 Mar 2023 11:55:01 GMT</t>
-  </si>
-  <si>
-    <t>Mon, 27 Mar 2023 11:57:02 GMT</t>
-  </si>
-  <si>
-    <t>089738612f943ae8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.6c52206b644043f09b41b3c74228843b4dfe48ebb8becb8da36c83ed0e434d10.5e4149e4e8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>viene visualizzato il seguente messaggio di errore: "Errore nella validazione del CDA2: " + la descrizione dell'errore ritornata dal gateway.
 L'applicativo può essere configurato per comportarsi nei seguenti modi a seconda delle disposizioni regionali e delle scelte aziendali:
 1. L'errore è bloccante e il referto torna in coda di firma. Dopo che l'errore è stato corretto dal medico o dal personale amministrativo, il referto può essere firmato nuovamente e inviato al respoitory aziendale  che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.
@@ -741,6 +723,24 @@
   </si>
   <si>
     <t>Il medico è invitato dal programma a scegliere tra una delle opzioni di oscuramento configurate. Non è possibile quindi che venga inviato un valore errato a meno di errori di configurazione. In questo caso è il personale in backoffice che corregge la configurazione.</t>
+  </si>
+  <si>
+    <t>7d4a4f0b2bb89a86</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.777bfcef45ed7570582b9ab1a6679e3c7855292866ac731f828581ae00b0e6e1.60a69a0219^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Wed, 12 Apr 2023 12:57:10 GMT</t>
+  </si>
+  <si>
+    <t>8ac0623f07a8a745</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.777bfcef45ed7570582b9ab1a6679e3c7855292866ac731f828581ae00b0e6e1.63eb6eb10c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Wed, 12 Apr 2023 12:59:09 GMT</t>
   </si>
 </sst>
 </file>
@@ -2698,10 +2698,10 @@
   <dimension ref="A1:O880"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2919,16 +2919,16 @@
         <v>29</v>
       </c>
       <c r="F10" s="17">
-        <v>45012</v>
+        <v>45028</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
@@ -2958,16 +2958,16 @@
         <v>31</v>
       </c>
       <c r="F11" s="17">
-        <v>45012</v>
+        <v>45028</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="37" t="s">
@@ -3071,7 +3071,7 @@
         <v>104</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>40</v>
@@ -3116,7 +3116,7 @@
         <v>123</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>40</v>
@@ -3155,7 +3155,7 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="19" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
@@ -3227,7 +3227,7 @@
         <v>139</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>40</v>
@@ -3240,7 +3240,7 @@
         <v>40</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="288.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
@@ -3272,7 +3272,7 @@
         <v>105</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>40</v>
@@ -3285,7 +3285,7 @@
         <v>40</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -3383,7 +3383,7 @@
         <v>110</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>40</v>

--- a/GATEWAY/A1#111BCSSRL00000/BCS/PriamoRIS/4.14.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/PriamoRIS/4.14.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\shares\Rep-Software\A-FSE-2\Test Case\0 AAA VALIDAZIONE\1-Referto di Radiologia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B6EB1A-DE83-429F-B115-0B3D6E7F0009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F2EE7E-7FC7-42D9-848F-FB087E8F747C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="316" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -725,22 +725,22 @@
     <t>Il medico è invitato dal programma a scegliere tra una delle opzioni di oscuramento configurate. Non è possibile quindi che venga inviato un valore errato a meno di errori di configurazione. In questo caso è il personale in backoffice che corregge la configurazione.</t>
   </si>
   <si>
-    <t>7d4a4f0b2bb89a86</t>
+    <t>c8c65ede86d0fdda</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.777bfcef45ed7570582b9ab1a6679e3c7855292866ac731f828581ae00b0e6e1.60a69a0219^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.63d1dbd0749830b547ef69a44d2d0e84d76bbe5d3c177b4a91f7e1da5bc7221a.bf038ee5cc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>Wed, 12 Apr 2023 12:57:10 GMT</t>
+    <t>Mon, 17 Apr 2023 12:55:26 GMT</t>
   </si>
   <si>
-    <t>8ac0623f07a8a745</t>
+    <t>Mon, 17 Apr 2023 12:56:46 GMT</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.777bfcef45ed7570582b9ab1a6679e3c7855292866ac731f828581ae00b0e6e1.63eb6eb10c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>174edad29222edaf</t>
   </si>
   <si>
-    <t>Wed, 12 Apr 2023 12:59:09 GMT</t>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.63d1dbd0749830b547ef69a44d2d0e84d76bbe5d3c177b4a91f7e1da5bc7221a.71f7414922^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2698,10 +2698,10 @@
   <dimension ref="A1:O880"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2919,7 +2919,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="17">
-        <v>45028</v>
+        <v>45033</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>146</v>
@@ -2958,16 +2958,16 @@
         <v>31</v>
       </c>
       <c r="F11" s="17">
-        <v>45028</v>
+        <v>45033</v>
       </c>
       <c r="G11" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>149</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>148</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="37" t="s">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="O30" s="21"/>
     </row>
-    <row r="31" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
         <v>89</v>
       </c>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="O31" s="21"/>
     </row>
-    <row r="32" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
         <v>90</v>
       </c>

--- a/GATEWAY/A1#111BCSSRL00000/BCS/PriamoRIS/4.14.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/PriamoRIS/4.14.0.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\shares\Rep-Software\A-FSE-2\Test Case\0 AAA VALIDAZIONE\1-Referto di Radiologia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F2EE7E-7FC7-42D9-848F-FB087E8F747C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDEA0AA-E348-4663-8EA4-EAA64B798CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="316" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="316" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -725,22 +725,22 @@
     <t>Il medico è invitato dal programma a scegliere tra una delle opzioni di oscuramento configurate. Non è possibile quindi che venga inviato un valore errato a meno di errori di configurazione. In questo caso è il personale in backoffice che corregge la configurazione.</t>
   </si>
   <si>
-    <t>c8c65ede86d0fdda</t>
+    <t>0613bbe9791151ae</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.63d1dbd0749830b547ef69a44d2d0e84d76bbe5d3c177b4a91f7e1da5bc7221a.bf038ee5cc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.4e4adf0076c9fe45f31f07865a11c019e7f6a71d57fa0577d71fce3787151912.61accb9f1d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>Mon, 17 Apr 2023 12:55:26 GMT</t>
+    <t>Thu, 20 Apr 2023 09:00:09 GMT</t>
   </si>
   <si>
-    <t>Mon, 17 Apr 2023 12:56:46 GMT</t>
+    <t>Thu, 20 Apr 2023 09:02:07 GMT</t>
   </si>
   <si>
-    <t>174edad29222edaf</t>
+    <t>eccdc46ce8673dc0</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.63d1dbd0749830b547ef69a44d2d0e84d76bbe5d3c177b4a91f7e1da5bc7221a.71f7414922^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.4e4adf0076c9fe45f31f07865a11c019e7f6a71d57fa0577d71fce3787151912.3ffb3130aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2698,10 +2698,10 @@
   <dimension ref="A1:O880"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2919,7 +2919,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="17">
-        <v>45033</v>
+        <v>45036</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>146</v>
@@ -2958,7 +2958,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="17">
-        <v>45033</v>
+        <v>45036</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>147</v>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="O30" s="21"/>
     </row>
-    <row r="31" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
         <v>89</v>
       </c>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="O31" s="21"/>
     </row>
-    <row r="32" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
         <v>90</v>
       </c>

--- a/GATEWAY/A1#111BCSSRL00000/BCS/PriamoRIS/4.14.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/PriamoRIS/4.14.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\Shares\Rep-Software\A-FSE-2\Nazionale\Test Case\0 AAA VALIDAZIONE\1-Referto di Radiologia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0D378A-5370-468B-99BB-DFE2A043D389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5DEBC3-AE8E-4CAB-B847-1F11EC335574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="316" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -737,10 +737,10 @@
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.a6ab80be41e70737b6ebef75e3bf01fe2397365dedd9df266013e166315728ef.721c138549^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>La città di residenza è un dato obbligatorio per il software PriamoRIS. Anche forzando un valore nullo da database, l'applicativo inserisce comunque il tag nel CDA, in questo caso vuoto. Questo non causa l'errore atteso ma il CDA viene validato correttamente da gateway.</t>
+    <t>La città di residenza è un dato obbligatorio per il software PriamoRIS.</t>
   </si>
   <si>
-    <t>Il nome del paziente è un dato obbligatorio per il software PriamoRIS. Anche forzando un valore nullo da database, l'applicativo inserisce comunque il tag nel CDA, in questo caso vuoto. Questo non causa l'errore atteso ma il CDA viene validato correttamente da gateway.</t>
+    <t>Il nome del paziente è un dato obbligatorio per il software PriamoRIS</t>
   </si>
 </sst>
 </file>
@@ -2698,7 +2698,7 @@
   <dimension ref="A1:O880"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
